--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BinaryLords_EMICalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA4656-5F4D-41EE-9FF3-9351690BD254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73B3A5-F1E8-4111-8A62-BC84739D94EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -52,16 +52,10 @@
     <t>Car Loan</t>
   </si>
   <si>
-    <t>To verify the EMI calculation for Car Loan with given inputs.</t>
-  </si>
-  <si>
     <t>REQ_001</t>
   </si>
   <si>
     <t>TS_002</t>
-  </si>
-  <si>
-    <t>To verify the EMI calculation for Home Loan with given inputs and store it in excel.</t>
   </si>
   <si>
     <t>REQ_002</t>
@@ -557,6 +551,12 @@
   </si>
   <si>
     <t xml:space="preserve">Principal amount and interest amount of first month is displayed </t>
+  </si>
+  <si>
+    <t>To verify the EMI calculation for Home Loan with given inputs, extract all the data from year-on-year table and store it in excel.</t>
+  </si>
+  <si>
+    <t>To verify the EMI calculation for Car Loan with given inputs and store interest amount &amp; display principal amount of first month</t>
   </si>
 </sst>
 </file>
@@ -916,36 +916,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,37 +983,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,27 +1304,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1343,8 +1343,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1354,70 +1354,70 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -1461,2231 +1461,2440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="D1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="K1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="L1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="M1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="53" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="C2" s="53" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="D2" s="53" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>41</v>
       </c>
       <c r="E2" s="27">
         <v>1</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="44"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="27">
         <v>2</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="44"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="27">
         <v>3</v>
       </c>
       <c r="F4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="33">
+        <v>4</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="G5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="45">
-        <v>4</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="H5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="34">
+        <v>5</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="34">
+        <v>6</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="C9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="46">
-        <v>5</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="46">
-        <v>6</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="D9" s="46" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>59</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11">
         <v>2</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="32"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="11">
         <v>3</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="C13" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="D13" s="46" t="s">
         <v>69</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="11">
         <v>2</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="32"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="11">
         <v>3</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>71</v>
+      <c r="D16" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="11">
         <v>2</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="32"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="11">
         <v>3</v>
       </c>
       <c r="F18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>71</v>
+      <c r="D19" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="11">
         <v>2</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="32"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="11">
         <v>3</v>
       </c>
       <c r="F21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31" t="s">
+      <c r="D22" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="G22" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="32">
-        <v>1</v>
-      </c>
-      <c r="F22" s="38" t="s">
+      <c r="H22" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="I22" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="C25" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>71</v>
+      <c r="D25" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="11">
         <v>2</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="32"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="11">
         <v>3</v>
       </c>
       <c r="F27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>71</v>
+      <c r="D28" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="11">
         <v>2</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="32"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="11">
         <v>3</v>
       </c>
       <c r="F30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>71</v>
+      <c r="D31" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="11">
         <v>2</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="32"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="11">
         <v>3</v>
       </c>
       <c r="F33" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>71</v>
+      <c r="D34" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E34" s="11">
         <v>1</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="11">
         <v>2</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="45"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="32"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="11">
         <v>3</v>
       </c>
       <c r="F36" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>71</v>
+      <c r="D37" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="E37" s="11">
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="11">
         <v>2</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="32"/>
+      <c r="L38" s="45"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="11">
         <v>3</v>
       </c>
       <c r="F39" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="32" t="s">
+      <c r="D41" s="46" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>112</v>
       </c>
       <c r="E41" s="11">
         <v>1</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J41" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="11">
         <v>2</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="45"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="32"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="11">
         <v>3</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+        <v>112</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="32"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>112</v>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="E44" s="11">
         <v>1</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="11">
         <v>2</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="32"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="11">
         <v>3</v>
       </c>
       <c r="F46" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>112</v>
+      <c r="D47" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="E47" s="11">
         <v>1</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J47" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="11">
         <v>2</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="45"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="32"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="11">
         <v>3</v>
       </c>
       <c r="F49" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="33" t="s">
+      <c r="D50" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="45">
+        <v>1</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="32">
-        <v>1</v>
-      </c>
-      <c r="F50" s="37" t="s">
+      <c r="H50" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="33" t="s">
+      <c r="I50" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>112</v>
+      <c r="D53" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="E53" s="11">
         <v>1</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J53" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="11">
         <v>2</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="45"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="32"/>
+      <c r="L54" s="45"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="11">
         <v>3</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="32"/>
+        <v>93</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="45"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="32"/>
+      <c r="L55" s="45"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>112</v>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="E56" s="11">
         <v>1</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J56" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="11">
         <v>2</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="45"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="32"/>
+      <c r="L57" s="45"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="11">
         <v>3</v>
       </c>
       <c r="F58" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>112</v>
+      <c r="D59" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="E59" s="11">
         <v>1</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J59" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="11">
         <v>2</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="45"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="32"/>
+      <c r="L60" s="45"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="11">
         <v>3</v>
       </c>
       <c r="F61" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>112</v>
+      <c r="D62" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="E62" s="11">
         <v>1</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I62" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I62" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J62" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="11">
         <v>2</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="45"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="32"/>
+      <c r="L63" s="45"/>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="11">
         <v>3</v>
       </c>
       <c r="F64" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>112</v>
+      <c r="D65" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H65" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I65" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J65" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="11">
         <v>2</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="45"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="32"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="11">
         <v>3</v>
       </c>
       <c r="F67" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="44"/>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="46" t="s">
         <v>130</v>
-      </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="36"/>
-    </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>132</v>
       </c>
       <c r="E69" s="11">
         <v>1</v>
       </c>
       <c r="F69" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I69" s="31" t="s">
+      <c r="I69" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J69" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="11">
         <v>2</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="45"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="32"/>
+      <c r="L70" s="45"/>
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="11">
         <v>3</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
+        <v>74</v>
+      </c>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="45"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="32"/>
+      <c r="L71" s="45"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>132</v>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E72" s="11">
         <v>1</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I72" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J72" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="11">
         <v>2</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="45"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="32"/>
+      <c r="L73" s="45"/>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="11">
         <v>3</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="45"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="32"/>
+      <c r="L74" s="45"/>
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>132</v>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E75" s="11">
         <v>1</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H75" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I75" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J75" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
       <c r="E76" s="11">
         <v>2</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="45"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="32"/>
+      <c r="L76" s="45"/>
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
       <c r="E77" s="11">
         <v>3</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="45"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="32"/>
+      <c r="L77" s="45"/>
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>132</v>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E78" s="11">
         <v>1</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H78" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I78" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J78" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
       <c r="E79" s="11">
         <v>2</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="45"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="32"/>
+      <c r="L79" s="45"/>
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
       <c r="E80" s="11">
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="32"/>
+        <v>93</v>
+      </c>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="45"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="32"/>
+      <c r="L80" s="45"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>132</v>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E81" s="11">
         <v>1</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H81" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I81" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J81" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
       <c r="E82" s="11">
         <v>2</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="45"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="32"/>
+      <c r="L82" s="45"/>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
       <c r="E83" s="11">
         <v>3</v>
       </c>
       <c r="F83" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="45"/>
+      <c r="B84" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>132</v>
+      <c r="D84" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E84" s="11">
         <v>1</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G84" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H84" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I84" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J84" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
       <c r="E85" s="11">
         <v>2</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="45"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="32"/>
+      <c r="L85" s="45"/>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
       <c r="E86" s="11">
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>132</v>
+      <c r="D87" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E87" s="11">
         <v>1</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H87" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I87" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I87" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="L87" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J87" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="2"/>
-      <c r="L87" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="11">
         <v>2</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="45"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="32"/>
+      <c r="L88" s="45"/>
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="11">
         <v>3</v>
       </c>
       <c r="F89" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="45"/>
+      <c r="B90" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>132</v>
+      <c r="D90" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E90" s="11">
         <v>1</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H90" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I90" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H90" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I90" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J90" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
       <c r="E91" s="11">
         <v>2</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="45"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="32"/>
+      <c r="L91" s="45"/>
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
       <c r="E92" s="11">
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+        <v>146</v>
+      </c>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="45"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="32"/>
+      <c r="L92" s="45"/>
       <c r="M92" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="233">
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A13:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A41:A67"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
     <mergeCell ref="A12:M12"/>
     <mergeCell ref="A40:M40"/>
     <mergeCell ref="A68:M68"/>
@@ -3710,215 +3919,6 @@
     <mergeCell ref="G84:G86"/>
     <mergeCell ref="H84:H86"/>
     <mergeCell ref="I84:I86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A41:A67"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A13:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="J65:J67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3950,55 +3950,55 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4121,25 +4121,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="G1" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4147,20 +4147,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4168,20 +4168,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4189,20 +4189,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4211,11 +4211,11 @@
       <c r="C5" s="12"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4224,11 +4224,11 @@
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4237,11 +4237,11 @@
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4250,11 +4250,11 @@
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4263,11 +4263,11 @@
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4276,11 +4276,11 @@
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4289,11 +4289,11 @@
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4302,11 +4302,11 @@
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4314,20 +4314,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4336,11 +4336,11 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4349,11 +4349,11 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4362,11 +4362,11 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4375,11 +4375,11 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4388,11 +4388,11 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4401,11 +4401,11 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4414,11 +4414,11 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4427,11 +4427,11 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4439,20 +4439,20 @@
         <v>5</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4461,11 +4461,11 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4474,11 +4474,11 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4487,11 +4487,11 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4500,11 +4500,11 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4513,11 +4513,11 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4526,11 +4526,11 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4539,11 +4539,11 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BinaryLords_EMICalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73B3A5-F1E8-4111-8A62-BC84739D94EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A991C0-4CAF-4B79-9930-9E523DCEBE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -163,33 +163,6 @@
     <t>Binary Lords</t>
   </si>
   <si>
-    <t>Enter valid input for "Car Loan Amount" text box.</t>
-  </si>
-  <si>
-    <t>Entered valid input for "Car Loan Amount" should be accepted.</t>
-  </si>
-  <si>
-    <t>Entered input in "Car Loan Amount" is accepted.</t>
-  </si>
-  <si>
-    <t>Enter valid input for "Interest Rate" text box.</t>
-  </si>
-  <si>
-    <t>Entered valid input for "Interest Rate" should be accepted.</t>
-  </si>
-  <si>
-    <t>Entered input in "Interest Rate" is accepted.</t>
-  </si>
-  <si>
-    <t>Enter valid input for "Loan Tenure" text box.</t>
-  </si>
-  <si>
-    <t>Entered valid input for "Loan Tenure" should be accepted.</t>
-  </si>
-  <si>
-    <t>Entered input in "Loan Tenure" is accepted.</t>
-  </si>
-  <si>
     <t>TC_002</t>
   </si>
   <si>
@@ -557,6 +530,33 @@
   </si>
   <si>
     <t>To verify the EMI calculation for Car Loan with given inputs and store interest amount &amp; display principal amount of first month</t>
+  </si>
+  <si>
+    <t>Enter '9.5' for "Interest Rate" text box.</t>
+  </si>
+  <si>
+    <t>Entered '9.5' in "Interest Rate" is accepted.</t>
+  </si>
+  <si>
+    <t>Entered '9.5' for "Interest Rate" should be accepted.</t>
+  </si>
+  <si>
+    <t>Enter '1'  for "Loan Tenure" text box.</t>
+  </si>
+  <si>
+    <t>Entered '1' for "Loan Tenure" should be accepted.</t>
+  </si>
+  <si>
+    <t>Entered '1' in "Loan Tenure" is accepted.</t>
+  </si>
+  <si>
+    <t>Enter '1500000' for "Car Loan Amount" text box.</t>
+  </si>
+  <si>
+    <t>Entered '1500000' for "Car Loan Amount" should be accepted.</t>
+  </si>
+  <si>
+    <t>Entered '1500000' in "Car Loan Amount" is accepted.</t>
   </si>
 </sst>
 </file>
@@ -952,6 +952,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,33 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -1366,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -1440,9 +1440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,16 +1502,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="48" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="27">
@@ -1526,2259 +1526,2277 @@
       <c r="H2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="52" t="s">
+      <c r="I2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="47" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="32"/>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="47" t="s">
         <v>45</v>
       </c>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="27">
         <v>2</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+        <v>176</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="52"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="27">
         <v>3</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+        <v>169</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="52"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="33">
         <v>4</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+        <v>173</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="52"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="34">
         <v>5</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+        <v>162</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="52"/>
+      <c r="L6" s="47"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="34">
         <v>6</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+        <v>165</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="52"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>57</v>
+      <c r="B9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="11">
         <v>2</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
+        <v>54</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="11">
         <v>3</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+        <v>57</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>69</v>
+      <c r="B13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I13" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="11">
         <v>2</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+        <v>64</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="45"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="45"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="11">
         <v>3</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+        <v>65</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="41"/>
-      <c r="J15" s="45"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="45"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>69</v>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I16" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="11">
         <v>2</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="45"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="45"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="11">
         <v>3</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+        <v>70</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="45"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>69</v>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I19" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="11">
         <v>2</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="45"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="45"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="11">
         <v>3</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="45"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="45"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="45">
+        <v>76</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="42">
         <v>1</v>
       </c>
-      <c r="F22" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="45" t="s">
+      <c r="F22" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="41"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="45"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="45"/>
+      <c r="L24" s="42"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>69</v>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E25" s="11">
         <v>1</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I25" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="11">
         <v>2</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="45"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="45"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="11">
         <v>3</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+        <v>84</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="45"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="45"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>69</v>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>97</v>
+        <v>61</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="11">
         <v>2</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
+        <v>64</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="45"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="45"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="11">
         <v>3</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
+        <v>89</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="45"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="45"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>69</v>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I31" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="45" t="s">
+      <c r="L31" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="11">
         <v>2</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="41"/>
-      <c r="J32" s="45"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="45"/>
+      <c r="L32" s="42"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="11">
         <v>3</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
+        <v>92</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="41"/>
-      <c r="J33" s="45"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="45"/>
+      <c r="L33" s="42"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>69</v>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E34" s="11">
         <v>1</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>97</v>
+        <v>73</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="11">
         <v>2</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="41"/>
-      <c r="J35" s="45"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="45"/>
+      <c r="L35" s="42"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="11">
         <v>3</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
+        <v>95</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
       <c r="I36" s="41"/>
-      <c r="J36" s="45"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="45"/>
+      <c r="L36" s="42"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>69</v>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="E37" s="11">
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I37" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="45" t="s">
+      <c r="L37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="11">
         <v>2</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="41"/>
-      <c r="J38" s="45"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="45"/>
+      <c r="L38" s="42"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="11">
         <v>3</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
+        <v>98</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
       <c r="I39" s="41"/>
-      <c r="J39" s="45"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="45"/>
+      <c r="L39" s="42"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="44"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>110</v>
+      <c r="B41" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E41" s="11">
         <v>1</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I41" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K41" s="2"/>
-      <c r="L41" s="45" t="s">
+      <c r="L41" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="11">
         <v>2</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="41"/>
-      <c r="J42" s="45"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="45"/>
+      <c r="L42" s="42"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="11">
         <v>3</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
+        <v>103</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="41"/>
-      <c r="J43" s="45"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="45"/>
+      <c r="L43" s="42"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>110</v>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E44" s="11">
         <v>1</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I44" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="45" t="s">
+      <c r="L44" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="11">
         <v>2</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="41"/>
-      <c r="J45" s="45"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="45"/>
+      <c r="L45" s="42"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="11">
         <v>3</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
+        <v>70</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="45"/>
+      <c r="J46" s="42"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="45"/>
+      <c r="L46" s="42"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>110</v>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E47" s="11">
         <v>1</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I47" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J47" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="45" t="s">
+      <c r="L47" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="11">
         <v>2</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
       <c r="I48" s="41"/>
-      <c r="J48" s="45"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="45"/>
+      <c r="L48" s="42"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="11">
         <v>3</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
+        <v>75</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
       <c r="I49" s="41"/>
-      <c r="J49" s="45"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="45"/>
+      <c r="L49" s="42"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="45">
+        <v>106</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="42">
         <v>1</v>
       </c>
-      <c r="F50" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J50" s="45" t="s">
+      <c r="F50" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="45" t="s">
+      <c r="L50" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="41"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="45"/>
+      <c r="L51" s="42"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="41"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="45"/>
+      <c r="L52" s="42"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>110</v>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E53" s="11">
         <v>1</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I53" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="J53" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="45" t="s">
+      <c r="L53" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="11">
         <v>2</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="45"/>
+      <c r="J54" s="42"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="45"/>
+      <c r="L54" s="42"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="11">
         <v>3</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+        <v>84</v>
+      </c>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="45"/>
+      <c r="J55" s="42"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="45"/>
+      <c r="L55" s="42"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>110</v>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E56" s="11">
         <v>1</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" s="46" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I56" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J56" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="45" t="s">
+      <c r="L56" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="11">
         <v>2</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="45"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="45"/>
+      <c r="L57" s="42"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="11">
         <v>3</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
+        <v>110</v>
+      </c>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="45"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="45"/>
+      <c r="L58" s="42"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>110</v>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E59" s="11">
         <v>1</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I59" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J59" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="45" t="s">
+      <c r="L59" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="11">
         <v>2</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="45"/>
+      <c r="J60" s="42"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="45"/>
+      <c r="L60" s="42"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="11">
         <v>3</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
+        <v>113</v>
+      </c>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="45"/>
+      <c r="J61" s="42"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="45"/>
+      <c r="L61" s="42"/>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>110</v>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E62" s="11">
         <v>1</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G62" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H62" s="46" t="s">
-        <v>97</v>
+        <v>73</v>
+      </c>
+      <c r="G62" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I62" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J62" s="45" t="s">
+      <c r="J62" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K62" s="2"/>
-      <c r="L62" s="45" t="s">
+      <c r="L62" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="11">
         <v>2</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="45"/>
+      <c r="J63" s="42"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="45"/>
+      <c r="L63" s="42"/>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="11">
         <v>3</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
+        <v>116</v>
+      </c>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
       <c r="I64" s="41"/>
-      <c r="J64" s="45"/>
+      <c r="J64" s="42"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="45"/>
+      <c r="L64" s="42"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>110</v>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H65" s="46" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I65" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J65" s="45" t="s">
+      <c r="J65" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="45" t="s">
+      <c r="L65" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="11">
         <v>2</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="45"/>
+      <c r="J66" s="42"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="45"/>
+      <c r="L66" s="42"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="11">
         <v>3</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
+        <v>119</v>
+      </c>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="45"/>
+      <c r="J67" s="42"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="45"/>
+      <c r="L67" s="42"/>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="44"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>130</v>
+      <c r="B69" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E69" s="11">
         <v>1</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H69" s="46" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I69" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J69" s="45" t="s">
+      <c r="J69" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="45" t="s">
+      <c r="L69" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="11">
         <v>2</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+        <v>64</v>
+      </c>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
       <c r="I70" s="41"/>
-      <c r="J70" s="45"/>
+      <c r="J70" s="42"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="45"/>
+      <c r="L70" s="42"/>
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="11">
         <v>3</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
+        <v>65</v>
+      </c>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
       <c r="I71" s="41"/>
-      <c r="J71" s="45"/>
+      <c r="J71" s="42"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="45"/>
+      <c r="L71" s="42"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>130</v>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E72" s="11">
         <v>1</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H72" s="46" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="G72" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I72" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J72" s="45" t="s">
+      <c r="J72" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K72" s="2"/>
-      <c r="L72" s="45" t="s">
+      <c r="L72" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="11">
         <v>2</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
       <c r="I73" s="41"/>
-      <c r="J73" s="45"/>
+      <c r="J73" s="42"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="45"/>
+      <c r="L73" s="42"/>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="11">
         <v>3</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
+        <v>123</v>
+      </c>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
       <c r="I74" s="41"/>
-      <c r="J74" s="45"/>
+      <c r="J74" s="42"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="45"/>
+      <c r="L74" s="42"/>
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>130</v>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E75" s="11">
         <v>1</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H75" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I75" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J75" s="45" t="s">
+      <c r="J75" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K75" s="2"/>
-      <c r="L75" s="45" t="s">
+      <c r="L75" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="11">
         <v>2</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
       <c r="I76" s="41"/>
-      <c r="J76" s="45"/>
+      <c r="J76" s="42"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="45"/>
+      <c r="L76" s="42"/>
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="11">
         <v>3</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
+        <v>70</v>
+      </c>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
       <c r="I77" s="41"/>
-      <c r="J77" s="45"/>
+      <c r="J77" s="42"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="45"/>
+      <c r="L77" s="42"/>
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>130</v>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E78" s="11">
         <v>1</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H78" s="46" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="G78" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="I78" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K78" s="2"/>
-      <c r="L78" s="45" t="s">
+      <c r="L78" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="11">
         <v>2</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
       <c r="I79" s="41"/>
-      <c r="J79" s="45"/>
+      <c r="J79" s="42"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="45"/>
+      <c r="L79" s="42"/>
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="11">
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
+        <v>84</v>
+      </c>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
       <c r="I80" s="41"/>
-      <c r="J80" s="45"/>
+      <c r="J80" s="42"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="45"/>
+      <c r="L80" s="42"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>130</v>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E81" s="11">
         <v>1</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G81" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H81" s="46" t="s">
-        <v>97</v>
+        <v>61</v>
+      </c>
+      <c r="G81" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I81" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J81" s="45" t="s">
+      <c r="J81" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="45" t="s">
+      <c r="L81" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="11">
         <v>2</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
+        <v>64</v>
+      </c>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
       <c r="I82" s="41"/>
-      <c r="J82" s="45"/>
+      <c r="J82" s="42"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="45"/>
+      <c r="L82" s="42"/>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="11">
         <v>3</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
+        <v>128</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
       <c r="I83" s="41"/>
-      <c r="J83" s="45"/>
+      <c r="J83" s="42"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="45"/>
+      <c r="L83" s="42"/>
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="46" t="s">
+      <c r="A84" s="42"/>
+      <c r="B84" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="43" t="s">
         <v>130</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E84" s="11">
         <v>1</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G84" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H84" s="46" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="G84" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H84" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I84" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J84" s="45" t="s">
+      <c r="J84" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K84" s="2"/>
-      <c r="L84" s="45" t="s">
+      <c r="L84" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="11">
         <v>2</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
       <c r="I85" s="41"/>
-      <c r="J85" s="45"/>
+      <c r="J85" s="42"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="45"/>
+      <c r="L85" s="42"/>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="11">
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
+        <v>131</v>
+      </c>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
       <c r="I86" s="41"/>
-      <c r="J86" s="45"/>
+      <c r="J86" s="42"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="45"/>
+      <c r="L86" s="42"/>
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>130</v>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E87" s="11">
         <v>1</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G87" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H87" s="46" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="G87" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I87" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J87" s="45" t="s">
+      <c r="J87" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K87" s="2"/>
-      <c r="L87" s="45" t="s">
+      <c r="L87" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="11">
         <v>2</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
       <c r="I88" s="41"/>
-      <c r="J88" s="45"/>
+      <c r="J88" s="42"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="45"/>
+      <c r="L88" s="42"/>
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="11">
         <v>3</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
+        <v>134</v>
+      </c>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
       <c r="I89" s="41"/>
-      <c r="J89" s="45"/>
+      <c r="J89" s="42"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="45"/>
+      <c r="L89" s="42"/>
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" s="46" t="s">
-        <v>130</v>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="E90" s="11">
         <v>1</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H90" s="46" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="G90" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H90" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="I90" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J90" s="45" t="s">
+      <c r="J90" s="42" t="s">
         <v>44</v>
       </c>
       <c r="K90" s="2"/>
-      <c r="L90" s="45" t="s">
+      <c r="L90" s="42" t="s">
         <v>45</v>
       </c>
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="11">
         <v>2</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
+        <v>74</v>
+      </c>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
       <c r="I91" s="41"/>
-      <c r="J91" s="45"/>
+      <c r="J91" s="42"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="45"/>
+      <c r="L91" s="42"/>
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="11">
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
+        <v>137</v>
+      </c>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
       <c r="I92" s="41"/>
-      <c r="J92" s="45"/>
+      <c r="J92" s="42"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="45"/>
+      <c r="L92" s="42"/>
       <c r="M92" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A68:M68"/>
+    <mergeCell ref="L84:L86"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="L90:L92"/>
+    <mergeCell ref="A69:A92"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="L72:L74"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A41:A67"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="A13:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G31:G33"/>
     <mergeCell ref="H31:H33"/>
     <mergeCell ref="I31:I33"/>
     <mergeCell ref="B28:B30"/>
@@ -3803,122 +3821,104 @@
     <mergeCell ref="H53:H55"/>
     <mergeCell ref="I53:I55"/>
     <mergeCell ref="B50:B52"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A13:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I25:I27"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="H22:H24"/>
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="E22:E24"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="A41:A67"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A68:M68"/>
-    <mergeCell ref="L84:L86"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="L90:L92"/>
-    <mergeCell ref="A69:A92"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="L72:L74"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J65:J67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3950,34 +3950,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>36</v>
@@ -3986,19 +3986,19 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4121,22 +4121,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>32</v>
@@ -4150,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>7</v>
@@ -4171,13 +4171,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="26" t="s">
@@ -4192,13 +4192,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="26" t="s">
@@ -4211,7 +4211,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="26" t="s">
@@ -4224,7 +4224,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="26" t="s">
@@ -4237,7 +4237,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="26" t="s">
@@ -4250,7 +4250,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
@@ -4263,7 +4263,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="26" t="s">
@@ -4276,7 +4276,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="26" t="s">
@@ -4289,7 +4289,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="26" t="s">
@@ -4302,7 +4302,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="26" t="s">
@@ -4317,13 +4317,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="26" t="s">
@@ -4336,7 +4336,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="26" t="s">
@@ -4349,7 +4349,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="26" t="s">
@@ -4362,7 +4362,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="26" t="s">
@@ -4375,7 +4375,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="26" t="s">
@@ -4388,7 +4388,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="26" t="s">
@@ -4401,7 +4401,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="26" t="s">
@@ -4414,7 +4414,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="26" t="s">
@@ -4427,7 +4427,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="26" t="s">
@@ -4442,13 +4442,13 @@
         <v>23</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="26" t="s">
@@ -4461,7 +4461,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="26" t="s">
@@ -4474,7 +4474,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="26" t="s">
@@ -4487,7 +4487,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="26" t="s">
@@ -4500,7 +4500,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="26" t="s">
@@ -4513,7 +4513,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="26" t="s">
@@ -4526,7 +4526,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="26" t="s">
@@ -4539,7 +4539,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="26" t="s">
